--- a/biology/Botanique/Pinus_montezumae/Pinus_montezumae.xlsx
+++ b/biology/Botanique/Pinus_montezumae/Pinus_montezumae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus montezumae est une espèce de conifères de la famille des Pinaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce conifère génère une sève odorante et facilement inflammable. Son bois s'utilise en construction et comme combustible. On trouve dans les commerces au Mexique des sachets de grosses allumettes de Pinus montezumae (appelé aussi ocote) servant à faire démarrer le charbon des barbecues[réf. nécessaire].
 C'est un arbre haut de 20  à   35 m dont le tronc peut atteindre 80 cm de diamètre. Son écorce est marron tirant sur le rouge.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus montezumae se trouve au Mexique et au Guatemala. 
 </t>
@@ -574,14 +590,16 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (8 août 2014)[2] et World Checklist of Selected Plant Families (WCSP)  (8 août 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (8 août 2014) et World Checklist of Selected Plant Families (WCSP)  (8 août 2014) :
 variété Pinus montezumae var. gordoniana (Hartw. ex Gordon) Silba (1990)
 variété Pinus montezumae var. montezumae
-Selon The Plant List            (8 août 2014)[4] :
+Selon The Plant List            (8 août 2014) :
 variété Pinus montezumae var. gordoniana (Hartw. ex Gordon) Silba
-Selon Tropicos                                           (8 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (8 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Pinus montezumae subsp. hartwegii (Lindl.) Engelm.
 variété Pinus montezumae var. gordoniana (Hartw. ex Gordon) Silba
 variété Pinus montezumae var. lindleyana (Gordon &amp; Glend.) Parl.
